--- a/自动站处理数据/8月4-6感热通量.xlsx
+++ b/自动站处理数据/8月4-6感热通量.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3d\data\内蒙观测数据汇总\湍流观测数据\uat64mat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B870DCD5-0008-4C1D-9408-614A55BBE260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70691D-6E53-4884-8812-7F5CE60246D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A76" sqref="A2:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -370,7 +370,7 @@
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="358" max="359" width="9" customWidth="1"/>
+    <col min="286" max="287" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -383,2881 +383,3457 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44047.506944444445</v>
+        <v>44047.006944444445</v>
       </c>
       <c r="B2">
-        <v>0.11850141430621899</v>
+        <v>-1.1289464024880499E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44047.513888888891</v>
+        <v>44047.013888888891</v>
       </c>
       <c r="B3">
-        <v>0.117568166965999</v>
+        <v>-1.1231814874512001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44047.520833333336</v>
+        <v>44047.020833333336</v>
       </c>
       <c r="B4">
-        <v>7.3481878462867703E-2</v>
+        <v>-1.01265057802004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44047.527777777781</v>
+        <v>44047.027777777781</v>
       </c>
       <c r="B5">
-        <v>8.6662062539742506E-3</v>
+        <v>-1.0320285006573299E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44047.534722222219</v>
+        <v>44047.034722222219</v>
       </c>
       <c r="B6">
-        <v>0.11007320955479701</v>
+        <v>-8.4714234055277508E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44047.541666666664</v>
+        <v>44047.041666666664</v>
       </c>
       <c r="B7">
-        <v>0.17924297016900501</v>
+        <v>-7.5370893466009201E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44047.548611111109</v>
+        <v>44047.048611111109</v>
       </c>
       <c r="B8">
-        <v>4.0283792134895899E-2</v>
+        <v>-2.9007542006396201E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44047.555555555555</v>
+        <v>44047.055555555555</v>
       </c>
       <c r="B9">
-        <v>5.2532579965996001E-2</v>
+        <v>-1.10214947901121E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44047.5625</v>
+        <v>44047.0625</v>
       </c>
       <c r="B10">
-        <v>0.10578162709642699</v>
+        <v>-2.4436666497440799E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44047.569444444445</v>
+        <v>44047.069444444445</v>
       </c>
       <c r="B11">
-        <v>0.15795778036201499</v>
+        <v>2.2575527651960401E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44047.576388888891</v>
+        <v>44047.076388888891</v>
       </c>
       <c r="B12">
-        <v>2.6279595025332701E-2</v>
+        <v>1.91263007273041E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44047.583333333336</v>
+        <v>44047.083333333336</v>
       </c>
       <c r="B13">
-        <v>9.4403861957045296E-2</v>
+        <v>-9.0146973161585699E-4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44047.590277777781</v>
+        <v>44047.090277777781</v>
       </c>
       <c r="B14">
-        <v>7.9694361965982397E-2</v>
+        <v>1.76525629956893E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44047.597222222219</v>
+        <v>44047.097222222219</v>
       </c>
       <c r="B15">
-        <v>0.106763708984718</v>
+        <v>1.28106459458212E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44047.604166666664</v>
+        <v>44047.104166666664</v>
       </c>
       <c r="B16">
-        <v>7.6472757922892903E-2</v>
+        <v>-2.5225459999971998E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44047.611111111109</v>
+        <v>44047.111111111109</v>
       </c>
       <c r="B17">
-        <v>6.1947196279355E-2</v>
+        <v>2.9928497707896697E-4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44047.618055555555</v>
+        <v>44047.118055555555</v>
       </c>
       <c r="B18">
-        <v>0.142314689085691</v>
+        <v>-2.3031856626001999E-4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44047.625</v>
+        <v>44047.125</v>
       </c>
       <c r="B19">
-        <v>6.7431442412603196E-2</v>
+        <v>-1.86429275113641E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44047.631944444445</v>
+        <v>44047.131944444445</v>
       </c>
       <c r="B20">
-        <v>9.5904941532449096E-3</v>
+        <v>-2.5003338777931901E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44047.638888888891</v>
+        <v>44047.138888888891</v>
       </c>
       <c r="B21">
-        <v>-5.0509850051986001E-2</v>
+        <v>-2.2235757751114501E-4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44047.645833333336</v>
+        <v>44047.145833333336</v>
       </c>
       <c r="B22">
-        <v>-5.4112457258502902E-2</v>
+        <v>-4.4878566640499098E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44047.652777777781</v>
+        <v>44047.152777777781</v>
       </c>
       <c r="B23">
-        <v>-2.2699442299590099E-2</v>
+        <v>-1.1391978503037701E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44047.659722222219</v>
+        <v>44047.159722222219</v>
       </c>
       <c r="B24">
-        <v>-2.9036657762708399E-3</v>
+        <v>-1.3441167516431001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44047.666666666664</v>
+        <v>44047.166666666664</v>
       </c>
       <c r="B25">
-        <v>1.25451043229811E-2</v>
+        <v>-1.5086909255407101E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44047.673611111109</v>
+        <v>44047.173611111109</v>
       </c>
       <c r="B26">
-        <v>1.39188705266363E-2</v>
+        <v>-1.2798820757516699E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>44047.680555555555</v>
+        <v>44047.180555555555</v>
       </c>
       <c r="B27">
-        <v>2.2048701608646099E-2</v>
+        <v>-1.0944970595230301E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>44047.6875</v>
+        <v>44047.1875</v>
       </c>
       <c r="B28">
-        <v>2.2306054988947398E-2</v>
+        <v>-1.4128010569160999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>44047.694444444445</v>
+        <v>44047.194444444445</v>
       </c>
       <c r="B29">
-        <v>1.30685874673302E-2</v>
+        <v>-1.56504265189308E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>44047.701388888891</v>
+        <v>44047.201388888891</v>
       </c>
       <c r="B30">
-        <v>7.1536278850586601E-3</v>
+        <v>-1.7683241928409501E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>44047.708333333336</v>
+        <v>44047.208333333336</v>
       </c>
       <c r="B31">
-        <v>-1.45153884860349E-3</v>
+        <v>-1.55266388145314E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>44047.715277777781</v>
+        <v>44047.215277777781</v>
       </c>
       <c r="B32">
-        <v>1.5632412061174501E-2</v>
+        <v>-1.15165971864851E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>44047.722222222219</v>
+        <v>44047.222222222219</v>
       </c>
       <c r="B33">
-        <v>5.4149213935449202E-3</v>
+        <v>-6.56243542439285E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>44047.729166666664</v>
+        <v>44047.229166666664</v>
       </c>
       <c r="B34">
-        <v>-1.09740796843201E-2</v>
+        <v>8.6548106654243799E-4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>44047.736111111109</v>
+        <v>44047.236111111109</v>
       </c>
       <c r="B35">
-        <v>1.5250662593470801E-3</v>
+        <v>-8.5928798067854404E-4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>44047.743055555555</v>
+        <v>44047.243055555555</v>
       </c>
       <c r="B36">
-        <v>-6.59809779292184E-3</v>
+        <v>-6.5803273662852803E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>44047.75</v>
+        <v>44047.25</v>
       </c>
       <c r="B37">
-        <v>-7.0181754685361098E-3</v>
+        <v>-7.9845390937368903E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>44047.756944444445</v>
+        <v>44047.256944444445</v>
       </c>
       <c r="B38">
-        <v>-1.9723597774491301E-4</v>
+        <v>-7.5277318816815595E-4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44047.763888888891</v>
+        <v>44047.263888888891</v>
       </c>
       <c r="B39">
-        <v>-8.5385970358839002E-3</v>
+        <v>7.0629109399268E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44047.770833333336</v>
+        <v>44047.270833333336</v>
       </c>
       <c r="B40">
-        <v>-1.8941011642667599E-3</v>
+        <v>8.2861248503934299E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44047.777777777781</v>
+        <v>44047.277777777781</v>
       </c>
       <c r="B41">
-        <v>-7.2357368631704999E-3</v>
+        <v>1.71225533679078E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>44047.784722222219</v>
+        <v>44047.284722222219</v>
       </c>
       <c r="B42">
-        <v>-1.32588708651863E-2</v>
+        <v>2.31128016106785E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>44047.791666666664</v>
+        <v>44047.291666666664</v>
       </c>
       <c r="B43">
-        <v>-8.5645679513528705E-4</v>
+        <v>4.0571149861850703E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>44047.798611111109</v>
+        <v>44047.298611111109</v>
       </c>
       <c r="B44">
-        <v>2.9121221043048899E-3</v>
+        <v>7.7119865263460697E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44047.805555555555</v>
+        <v>44047.305555555555</v>
       </c>
       <c r="B45">
-        <v>6.8318041408407899E-3</v>
+        <v>1.91231356950235E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44047.8125</v>
+        <v>44047.3125</v>
       </c>
       <c r="B46">
-        <v>-2.52509713278383E-3</v>
+        <v>5.8544879074114202E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44047.819444444445</v>
+        <v>44047.319444444445</v>
       </c>
       <c r="B47">
-        <v>-1.9401863713576901E-2</v>
+        <v>6.6934072116941606E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>44047.826388888891</v>
+        <v>44047.326388888891</v>
       </c>
       <c r="B48">
-        <v>-8.6137308908872095E-3</v>
+        <v>5.45808141925537E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>44047.833333333336</v>
+        <v>44047.333333333336</v>
       </c>
       <c r="B49">
-        <v>6.8854500923233499E-3</v>
+        <v>3.8380222571665498E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>44047.840277777781</v>
+        <v>44047.340277777781</v>
       </c>
       <c r="B50">
-        <v>6.0151350440479298E-3</v>
+        <v>3.1753562474003502E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>44047.847222222219</v>
+        <v>44047.347222222219</v>
       </c>
       <c r="B51">
-        <v>3.8966279943542599E-4</v>
+        <v>1.00020217801553E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>44047.854166666664</v>
+        <v>44047.354166666664</v>
       </c>
       <c r="B52">
-        <v>-2.30693705216722E-3</v>
+        <v>8.0148601563858404E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>44047.861111111109</v>
+        <v>44047.361111111109</v>
       </c>
       <c r="B53">
-        <v>-8.5253717040505092E-3</v>
+        <v>7.7148712226452407E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>44047.868055555555</v>
+        <v>44047.368055555555</v>
       </c>
       <c r="B54">
-        <v>-5.2871183186183803E-3</v>
+        <v>9.9658079750557294E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>44047.875</v>
+        <v>44047.375</v>
       </c>
       <c r="B55">
-        <v>-1.1001582663158901E-3</v>
+        <v>0.32732018348293002</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>44047.881944444445</v>
-      </c>
-      <c r="B56" s="1">
-        <v>7.46842861742884E-5</v>
+        <v>44047.381944444445</v>
+      </c>
+      <c r="B56">
+        <v>0.19589764740078899</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>44047.888888888891</v>
+        <v>44047.388888888891</v>
       </c>
       <c r="B57">
-        <v>5.4651573865747002E-3</v>
+        <v>0.25487587398983902</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>44047.895833333336</v>
+        <v>44047.395833333336</v>
       </c>
       <c r="B58">
-        <v>3.7510320637330302E-3</v>
+        <v>0.40442602951784201</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>44047.902777777781</v>
+        <v>44047.402777777781</v>
       </c>
       <c r="B59">
-        <v>2.3691721200017998E-3</v>
+        <v>8.1797439813054498E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>44047.909722222219</v>
+        <v>44047.409722222219</v>
       </c>
       <c r="B60">
-        <v>5.1317998006054502E-3</v>
+        <v>0.117635759729531</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>44047.916666666664</v>
+        <v>44047.416666666664</v>
       </c>
       <c r="B61">
-        <v>3.33646949379123E-3</v>
+        <v>0.32211771357991897</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>44047.923611111109</v>
-      </c>
-      <c r="B62" s="1">
-        <v>4.0249707006746097E-5</v>
+        <v>44047.423611111109</v>
+      </c>
+      <c r="B62">
+        <v>0.13923744817953199</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>44047.930555555555</v>
+        <v>44047.430555555555</v>
       </c>
       <c r="B63">
-        <v>-6.4062510473156999E-3</v>
+        <v>0.17587509174173999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>44047.9375</v>
+        <v>44047.4375</v>
       </c>
       <c r="B64">
-        <v>-8.7526330906918508E-3</v>
+        <v>0.32037611032248398</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>44047.944444444445</v>
+        <v>44047.444444444445</v>
       </c>
       <c r="B65">
-        <v>-9.4564739308460998E-3</v>
+        <v>0.14473570166344901</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>44047.951388888891</v>
+        <v>44047.451388888891</v>
       </c>
       <c r="B66">
-        <v>-4.8719351909275697E-3</v>
+        <v>0.23975025623156801</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>44047.958333333336</v>
+        <v>44047.458333333336</v>
       </c>
       <c r="B67">
-        <v>1.6871889300311201E-3</v>
+        <v>0.106415242695432</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>44047.965277777781</v>
+        <v>44047.465277777781</v>
       </c>
       <c r="B68">
-        <v>-4.9517008973243102E-3</v>
+        <v>0.10849144232243101</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>44047.972222222219</v>
+        <v>44047.472222222219</v>
       </c>
       <c r="B69">
-        <v>-5.0799725789278001E-3</v>
+        <v>0.14591961462251099</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>44047.979166666664</v>
+        <v>44047.479166666664</v>
       </c>
       <c r="B70">
-        <v>-7.2122535261782798E-3</v>
+        <v>0.17672221550203701</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>44047.986111111109</v>
+        <v>44047.486111111109</v>
       </c>
       <c r="B71">
-        <v>-7.7464665676599499E-3</v>
+        <v>0.12725528604119499</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>44047.993055555555</v>
+        <v>44047.493055555555</v>
       </c>
       <c r="B72">
-        <v>-5.4273771893667598E-3</v>
+        <v>0.13881610123766699</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>44048</v>
+        <v>44047.5</v>
       </c>
       <c r="B73">
-        <v>-5.3843324317528498E-4</v>
+        <v>0.16596635374386401</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>44048.006944444445</v>
+        <v>44047.506944444445</v>
       </c>
       <c r="B74">
-        <v>-3.9686708433938397E-3</v>
+        <v>0.11850141430621899</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>44048.013888888891</v>
+        <v>44047.513888888891</v>
       </c>
       <c r="B75">
-        <v>-4.5579993312101098E-3</v>
+        <v>0.117568166965999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>44048.020833333336</v>
+        <v>44047.520833333336</v>
       </c>
       <c r="B76">
-        <v>-4.1204008611093598E-3</v>
+        <v>7.3481878462867703E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>44048.027777777781</v>
+        <v>44047.527777777781</v>
       </c>
       <c r="B77">
-        <v>-4.5173730384130504E-3</v>
+        <v>8.6662062539742506E-3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>44048.034722222219</v>
+        <v>44047.534722222219</v>
       </c>
       <c r="B78">
-        <v>-1.9203422453746299E-3</v>
+        <v>0.11007320955479701</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>44048.041666666664</v>
+        <v>44047.541666666664</v>
       </c>
       <c r="B79">
-        <v>-3.3922238520248098E-3</v>
+        <v>0.17924297016900501</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>44048.048611111109</v>
+        <v>44047.548611111109</v>
       </c>
       <c r="B80">
-        <v>-3.5895116142376699E-3</v>
+        <v>4.0283792134895899E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>44048.055555555555</v>
+        <v>44047.555555555555</v>
       </c>
       <c r="B81">
-        <v>1.5209802090318099E-4</v>
+        <v>5.2532579965996001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>44048.0625</v>
+        <v>44047.5625</v>
       </c>
       <c r="B82">
-        <v>-6.6056718887937702E-4</v>
+        <v>0.10578162709642699</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>44048.069444444445</v>
+        <v>44047.569444444445</v>
       </c>
       <c r="B83">
-        <v>-1.3382670637133699E-4</v>
+        <v>0.15795778036201499</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>44048.076388888891</v>
+        <v>44047.576388888891</v>
       </c>
       <c r="B84">
-        <v>7.7337011464466204E-4</v>
+        <v>2.6279595025332701E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>44048.083333333336</v>
+        <v>44047.583333333336</v>
       </c>
       <c r="B85">
-        <v>1.8594786908101501E-3</v>
+        <v>9.4403861957045296E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>44048.090277777781</v>
+        <v>44047.590277777781</v>
       </c>
       <c r="B86">
-        <v>-1.35278637485177E-3</v>
+        <v>7.9694361965982397E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>44048.097222222219</v>
+        <v>44047.597222222219</v>
       </c>
       <c r="B87">
-        <v>-1.73487763034153E-3</v>
+        <v>0.106763708984718</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>44048.104166666664</v>
+        <v>44047.604166666664</v>
       </c>
       <c r="B88">
-        <v>3.9811564538585402E-4</v>
+        <v>7.6472757922892903E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>44048.111111111109</v>
+        <v>44047.611111111109</v>
       </c>
       <c r="B89">
-        <v>-2.9545424845602102E-3</v>
+        <v>6.1947196279355E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>44048.118055555555</v>
+        <v>44047.618055555555</v>
       </c>
       <c r="B90">
-        <v>-6.2873335455257999E-3</v>
+        <v>0.142314689085691</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>44048.125</v>
+        <v>44047.625</v>
       </c>
       <c r="B91">
-        <v>-1.84451818145551E-3</v>
+        <v>6.7431442412603196E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>44048.131944444445</v>
+        <v>44047.631944444445</v>
       </c>
       <c r="B92">
-        <v>1.6578158840244201E-3</v>
+        <v>9.5904941532449096E-3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>44048.138888888891</v>
+        <v>44047.638888888891</v>
       </c>
       <c r="B93">
-        <v>-4.92323966376106E-4</v>
+        <v>-5.0509850051986001E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>44048.145833333336</v>
+        <v>44047.645833333336</v>
       </c>
       <c r="B94">
-        <v>-5.57706847160568E-3</v>
+        <v>-5.4112457258502902E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>44048.152777777781</v>
-      </c>
-      <c r="B95" s="1">
-        <v>7.3572676860465998E-5</v>
+        <v>44047.652777777781</v>
+      </c>
+      <c r="B95">
+        <v>-2.2699442299590099E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>44048.159722222219</v>
+        <v>44047.659722222219</v>
       </c>
       <c r="B96">
-        <v>5.5113492728860502E-3</v>
+        <v>-2.9036657762708399E-3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>44048.166666666664</v>
+        <v>44047.666666666664</v>
       </c>
       <c r="B97">
-        <v>4.06601304574835E-4</v>
+        <v>1.25451043229811E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>44048.173611111109</v>
-      </c>
-      <c r="B98" s="1">
-        <v>-5.3552462374215201E-5</v>
+        <v>44047.673611111109</v>
+      </c>
+      <c r="B98">
+        <v>1.39188705266363E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>44048.180555555555</v>
+        <v>44047.680555555555</v>
       </c>
       <c r="B99">
-        <v>-5.9523241185570298E-3</v>
+        <v>2.2048701608646099E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>44048.1875</v>
+        <v>44047.6875</v>
       </c>
       <c r="B100">
-        <v>-4.57619799210505E-4</v>
+        <v>2.2306054988947398E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>44048.194444444445</v>
+        <v>44047.694444444445</v>
       </c>
       <c r="B101">
-        <v>-1.4087883588636101E-3</v>
+        <v>1.30685874673302E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>44048.201388888891</v>
+        <v>44047.701388888891</v>
       </c>
       <c r="B102">
-        <v>-5.4486103369050303E-3</v>
+        <v>7.1536278850586601E-3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>44048.208333333336</v>
+        <v>44047.708333333336</v>
       </c>
       <c r="B103">
-        <v>-8.6258287588002608E-3</v>
+        <v>-1.45153884860349E-3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>44048.215277777781</v>
+        <v>44047.715277777781</v>
       </c>
       <c r="B104">
-        <v>-2.9551887942524699E-3</v>
+        <v>1.5632412061174501E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>44048.222222222219</v>
+        <v>44047.722222222219</v>
       </c>
       <c r="B105">
-        <v>-3.7988337555737201E-3</v>
+        <v>5.4149213935449202E-3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>44048.229166666664</v>
+        <v>44047.729166666664</v>
       </c>
       <c r="B106">
-        <v>-5.1295034495329097E-3</v>
+        <v>-1.09740796843201E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>44048.236111111109</v>
+        <v>44047.736111111109</v>
       </c>
       <c r="B107">
-        <v>-7.3447214922016798E-3</v>
+        <v>1.5250662593470801E-3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>44048.243055555555</v>
+        <v>44047.743055555555</v>
       </c>
       <c r="B108">
-        <v>-6.3712404161206902E-3</v>
+        <v>-6.59809779292184E-3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>44048.25</v>
+        <v>44047.75</v>
       </c>
       <c r="B109">
-        <v>-1.6801238202620501E-3</v>
+        <v>-7.0181754685361098E-3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>44048.256944444445</v>
-      </c>
-      <c r="B110" s="1">
-        <v>-4.8959322623241904E-6</v>
+        <v>44047.756944444445</v>
+      </c>
+      <c r="B110">
+        <v>-1.9723597774491301E-4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>44048.263888888891</v>
+        <v>44047.763888888891</v>
       </c>
       <c r="B111">
-        <v>4.83669035923588E-3</v>
+        <v>-8.5385970358839002E-3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>44048.270833333336</v>
+        <v>44047.770833333336</v>
       </c>
       <c r="B112">
-        <v>1.5513983367673701E-2</v>
+        <v>-1.8941011642667599E-3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>44048.277777777781</v>
+        <v>44047.777777777781</v>
       </c>
       <c r="B113">
-        <v>9.0897128709597503E-3</v>
+        <v>-7.2357368631704999E-3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>44048.284722222219</v>
+        <v>44047.784722222219</v>
       </c>
       <c r="B114">
-        <v>8.89429095454583E-4</v>
+        <v>-1.32588708651863E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>44048.291666666664</v>
+        <v>44047.791666666664</v>
       </c>
       <c r="B115">
-        <v>-2.1217149701551899E-3</v>
+        <v>-8.5645679513528705E-4</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>44048.298611111109</v>
+        <v>44047.798611111109</v>
       </c>
       <c r="B116">
-        <v>7.43761821443266E-3</v>
+        <v>2.9121221043048899E-3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>44048.305555555555</v>
+        <v>44047.805555555555</v>
       </c>
       <c r="B117">
-        <v>8.7398001761525707E-3</v>
+        <v>6.8318041408407899E-3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>44048.3125</v>
+        <v>44047.8125</v>
       </c>
       <c r="B118">
-        <v>8.6708742970205699E-3</v>
+        <v>-2.52509713278383E-3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>44048.319444444445</v>
+        <v>44047.819444444445</v>
       </c>
       <c r="B119">
-        <v>1.3321803641702899E-2</v>
+        <v>-1.9401863713576901E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>44048.326388888891</v>
+        <v>44047.826388888891</v>
       </c>
       <c r="B120">
-        <v>1.2046504805101201E-2</v>
+        <v>-8.6137308908872095E-3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>44048.333333333336</v>
+        <v>44047.833333333336</v>
       </c>
       <c r="B121">
-        <v>4.5007737277619701E-3</v>
+        <v>6.8854500923233499E-3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>44048.340277777781</v>
+        <v>44047.840277777781</v>
       </c>
       <c r="B122">
-        <v>1.1644236062743099E-2</v>
+        <v>6.0151350440479298E-3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>44048.347222222219</v>
+        <v>44047.847222222219</v>
       </c>
       <c r="B123">
-        <v>1.5772217261743299E-2</v>
+        <v>3.8966279943542599E-4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>44048.354166666664</v>
+        <v>44047.854166666664</v>
       </c>
       <c r="B124">
-        <v>1.9534412529761298E-2</v>
+        <v>-2.30693705216722E-3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>44048.361111111109</v>
+        <v>44047.861111111109</v>
       </c>
       <c r="B125">
-        <v>1.9641028824726299E-2</v>
+        <v>-8.5253717040505092E-3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>44048.368055555555</v>
+        <v>44047.868055555555</v>
       </c>
       <c r="B126">
-        <v>2.4532994442107901E-2</v>
+        <v>-5.2871183186183803E-3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>44048.375</v>
+        <v>44047.875</v>
       </c>
       <c r="B127">
-        <v>1.7932285363827401E-2</v>
+        <v>-1.1001582663158901E-3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>44048.381944444445</v>
-      </c>
-      <c r="B128">
-        <v>3.6482881032139799E-2</v>
+        <v>44047.881944444445</v>
+      </c>
+      <c r="B128" s="1">
+        <v>7.46842861742884E-5</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>44048.388888888891</v>
+        <v>44047.888888888891</v>
       </c>
       <c r="B129">
-        <v>9.8149036741195309E-3</v>
+        <v>5.4651573865747002E-3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>44048.395833333336</v>
+        <v>44047.895833333336</v>
       </c>
       <c r="B130">
-        <v>-7.5413348113700903E-3</v>
+        <v>3.7510320637330302E-3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>44048.402777777781</v>
+        <v>44047.902777777781</v>
       </c>
       <c r="B131">
-        <v>-5.5107139389415898E-3</v>
+        <v>2.3691721200017998E-3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>44048.409722222219</v>
+        <v>44047.909722222219</v>
       </c>
       <c r="B132">
-        <v>3.8800928710186299E-4</v>
+        <v>5.1317998006054502E-3</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>44048.416666666664</v>
+        <v>44047.916666666664</v>
       </c>
       <c r="B133">
-        <v>-3.9158234110746201E-4</v>
+        <v>3.33646949379123E-3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>44048.423611111109</v>
-      </c>
-      <c r="B134">
-        <v>3.1531325424595498E-3</v>
+        <v>44047.923611111109</v>
+      </c>
+      <c r="B134" s="1">
+        <v>4.0249707006746097E-5</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>44048.430555555555</v>
+        <v>44047.930555555555</v>
       </c>
       <c r="B135">
-        <v>2.6127140544126699E-2</v>
+        <v>-6.4062510473156999E-3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>44048.4375</v>
+        <v>44047.9375</v>
       </c>
       <c r="B136">
-        <v>3.01709500415831E-2</v>
+        <v>-8.7526330906918508E-3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>44048.444444444445</v>
+        <v>44047.944444444445</v>
       </c>
       <c r="B137">
-        <v>1.10203270593418E-2</v>
+        <v>-9.4564739308460998E-3</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>44048.451388888891</v>
+        <v>44047.951388888891</v>
       </c>
       <c r="B138">
-        <v>1.1616273900863E-2</v>
+        <v>-4.8719351909275697E-3</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>44048.458333333336</v>
+        <v>44047.958333333336</v>
       </c>
       <c r="B139">
-        <v>5.3034366150547303E-2</v>
+        <v>1.6871889300311201E-3</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>44048.465277777781</v>
+        <v>44047.965277777781</v>
       </c>
       <c r="B140">
-        <v>6.3499198477796101E-2</v>
+        <v>-4.9517008973243102E-3</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>44048.472222222219</v>
+        <v>44047.972222222219</v>
       </c>
       <c r="B141">
-        <v>1.27486423413868E-2</v>
+        <v>-5.0799725789278001E-3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>44048.479166666664</v>
+        <v>44047.979166666664</v>
       </c>
       <c r="B142">
-        <v>6.8190951978641695E-2</v>
+        <v>-7.2122535261782798E-3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>44048.486111111109</v>
+        <v>44047.986111111109</v>
       </c>
       <c r="B143">
-        <v>6.0568016198866301E-2</v>
+        <v>-7.7464665676599499E-3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>44048.493055555555</v>
+        <v>44047.993055555555</v>
       </c>
       <c r="B144">
-        <v>-4.2188197086593E-3</v>
+        <v>-5.4273771893667598E-3</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>44048.5</v>
+        <v>44048</v>
       </c>
       <c r="B145">
-        <v>2.9478355872331601E-2</v>
+        <v>-5.3843324317528498E-4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>44048.506944444445</v>
+        <v>44048.006944444445</v>
       </c>
       <c r="B146">
-        <v>-6.65701465326739E-3</v>
+        <v>-3.9686708433938397E-3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>44048.513888888891</v>
+        <v>44048.013888888891</v>
       </c>
       <c r="B147">
-        <v>0.18698885150139199</v>
+        <v>-4.5579993312101098E-3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>44048.520833333336</v>
+        <v>44048.020833333336</v>
       </c>
       <c r="B148">
-        <v>0.101801184374295</v>
+        <v>-4.1204008611093598E-3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>44048.527777777781</v>
+        <v>44048.027777777781</v>
       </c>
       <c r="B149">
-        <v>0.14619411188638101</v>
+        <v>-4.5173730384130504E-3</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>44048.534722222219</v>
+        <v>44048.034722222219</v>
       </c>
       <c r="B150">
-        <v>0.19174544140807701</v>
+        <v>-1.9203422453746299E-3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>44048.541666666664</v>
+        <v>44048.041666666664</v>
       </c>
       <c r="B151">
-        <v>0.14893209131329599</v>
+        <v>-3.3922238520248098E-3</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>44048.548611111109</v>
+        <v>44048.048611111109</v>
       </c>
       <c r="B152">
-        <v>6.4565005923801697E-2</v>
+        <v>-3.5895116142376699E-3</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>44048.555555555555</v>
+        <v>44048.055555555555</v>
       </c>
       <c r="B153">
-        <v>0.239416305962356</v>
+        <v>1.5209802090318099E-4</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>44048.5625</v>
+        <v>44048.0625</v>
       </c>
       <c r="B154">
-        <v>3.99796031537294E-2</v>
+        <v>-6.6056718887937702E-4</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>44048.569444444445</v>
+        <v>44048.069444444445</v>
       </c>
       <c r="B155">
-        <v>3.5636507159338499E-2</v>
+        <v>-1.3382670637133699E-4</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>44048.576388888891</v>
+        <v>44048.076388888891</v>
       </c>
       <c r="B156">
-        <v>5.8065547443610498E-2</v>
+        <v>7.7337011464466204E-4</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>44048.583333333336</v>
+        <v>44048.083333333336</v>
       </c>
       <c r="B157">
-        <v>9.5569917613820304E-2</v>
+        <v>1.8594786908101501E-3</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>44048.590277777781</v>
+        <v>44048.090277777781</v>
       </c>
       <c r="B158">
-        <v>4.6550856782609902E-2</v>
+        <v>-1.35278637485177E-3</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>44048.597222222219</v>
+        <v>44048.097222222219</v>
       </c>
       <c r="B159">
-        <v>2.0298788405111502E-2</v>
+        <v>-1.73487763034153E-3</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>44048.604166666664</v>
+        <v>44048.104166666664</v>
       </c>
       <c r="B160">
-        <v>4.62831487678938E-2</v>
+        <v>3.9811564538585402E-4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>44048.611111111109</v>
+        <v>44048.111111111109</v>
       </c>
       <c r="B161">
-        <v>7.8489282238334498E-2</v>
+        <v>-2.9545424845602102E-3</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>44048.618055555555</v>
+        <v>44048.118055555555</v>
       </c>
       <c r="B162">
-        <v>2.9726558232073801E-2</v>
+        <v>-6.2873335455257999E-3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>44048.625</v>
+        <v>44048.125</v>
       </c>
       <c r="B163">
-        <v>2.05126541978751E-2</v>
+        <v>-1.84451818145551E-3</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>44048.631944444445</v>
+        <v>44048.131944444445</v>
       </c>
       <c r="B164">
-        <v>4.9628518421886897E-2</v>
+        <v>1.6578158840244201E-3</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>44048.638888888891</v>
+        <v>44048.138888888891</v>
       </c>
       <c r="B165">
-        <v>1.9864970158755799E-2</v>
+        <v>-4.92323966376106E-4</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>44048.645833333336</v>
+        <v>44048.145833333336</v>
       </c>
       <c r="B166">
-        <v>3.4552711698461698E-2</v>
+        <v>-5.57706847160568E-3</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>44048.652777777781</v>
-      </c>
-      <c r="B167">
-        <v>-2.6746189301704099E-2</v>
+        <v>44048.152777777781</v>
+      </c>
+      <c r="B167" s="1">
+        <v>7.3572676860465998E-5</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>44048.659722222219</v>
+        <v>44048.159722222219</v>
       </c>
       <c r="B168">
-        <v>2.1612613512160098E-2</v>
+        <v>5.5113492728860502E-3</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>44048.666666666664</v>
+        <v>44048.166666666664</v>
       </c>
       <c r="B169">
-        <v>2.8288400558078599E-2</v>
+        <v>4.06601304574835E-4</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>44048.673611111109</v>
-      </c>
-      <c r="B170">
-        <v>7.3717742566564604E-2</v>
+        <v>44048.173611111109</v>
+      </c>
+      <c r="B170" s="1">
+        <v>-5.3552462374215201E-5</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>44048.680555555555</v>
+        <v>44048.180555555555</v>
       </c>
       <c r="B171">
-        <v>-0.111381224048057</v>
+        <v>-5.9523241185570298E-3</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>44048.6875</v>
+        <v>44048.1875</v>
       </c>
       <c r="B172">
-        <v>-0.24711944713909401</v>
+        <v>-4.57619799210505E-4</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>44048.694444444445</v>
+        <v>44048.194444444445</v>
       </c>
       <c r="B173">
-        <v>2.3333283482749299E-2</v>
+        <v>-1.4087883588636101E-3</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>44048.701388888891</v>
+        <v>44048.201388888891</v>
       </c>
       <c r="B174">
-        <v>-5.2765994893589602E-2</v>
+        <v>-5.4486103369050303E-3</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>44048.708333333336</v>
+        <v>44048.208333333336</v>
       </c>
       <c r="B175">
-        <v>8.7707181567586001E-2</v>
+        <v>-8.6258287588002608E-3</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>44048.715277777781</v>
+        <v>44048.215277777781</v>
       </c>
       <c r="B176">
-        <v>0.13639842656576101</v>
+        <v>-2.9551887942524699E-3</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>44048.722222222219</v>
+        <v>44048.222222222219</v>
       </c>
       <c r="B177">
-        <v>0.17448904205096399</v>
+        <v>-3.7988337555737201E-3</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>44048.729166666664</v>
+        <v>44048.229166666664</v>
       </c>
       <c r="B178">
-        <v>0.15601784393063001</v>
+        <v>-5.1295034495329097E-3</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>44048.736111111109</v>
+        <v>44048.236111111109</v>
       </c>
       <c r="B179">
-        <v>0.14245094834394401</v>
+        <v>-7.3447214922016798E-3</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>44048.743055555555</v>
+        <v>44048.243055555555</v>
       </c>
       <c r="B180">
-        <v>0.16834637052106299</v>
+        <v>-6.3712404161206902E-3</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>44048.75</v>
+        <v>44048.25</v>
       </c>
       <c r="B181">
-        <v>0.24093757889068501</v>
+        <v>-1.6801238202620501E-3</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>44048.756944444445</v>
-      </c>
-      <c r="B182">
-        <v>0.26121924611786501</v>
+        <v>44048.256944444445</v>
+      </c>
+      <c r="B182" s="1">
+        <v>-4.8959322623241904E-6</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>44048.763888888891</v>
+        <v>44048.263888888891</v>
       </c>
       <c r="B183">
-        <v>0.211271501869324</v>
+        <v>4.83669035923588E-3</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>44048.770833333336</v>
+        <v>44048.270833333336</v>
       </c>
       <c r="B184">
-        <v>0.34500049895789803</v>
+        <v>1.5513983367673701E-2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>44048.777777777781</v>
+        <v>44048.277777777781</v>
       </c>
       <c r="B185">
-        <v>0.41923784632952399</v>
+        <v>9.0897128709597503E-3</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>44048.784722222219</v>
+        <v>44048.284722222219</v>
       </c>
       <c r="B186">
-        <v>0.27759238636335698</v>
+        <v>8.89429095454583E-4</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>44048.791666666664</v>
+        <v>44048.291666666664</v>
       </c>
       <c r="B187">
-        <v>0.18930106063331401</v>
+        <v>-2.1217149701551899E-3</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>44048.798611111109</v>
+        <v>44048.298611111109</v>
       </c>
       <c r="B188">
-        <v>0.192791749429468</v>
+        <v>7.43761821443266E-3</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>44048.805555555555</v>
+        <v>44048.305555555555</v>
       </c>
       <c r="B189">
-        <v>0.19496569590322099</v>
+        <v>8.7398001761525707E-3</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>44048.8125</v>
+        <v>44048.3125</v>
       </c>
       <c r="B190">
-        <v>0.158658448255481</v>
+        <v>8.6708742970205699E-3</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>44048.819444444445</v>
+        <v>44048.319444444445</v>
       </c>
       <c r="B191">
-        <v>0.16284345739815001</v>
+        <v>1.3321803641702899E-2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>44048.826388888891</v>
+        <v>44048.326388888891</v>
       </c>
       <c r="B192">
-        <v>0.129094396388409</v>
+        <v>1.2046504805101201E-2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>44048.833333333336</v>
+        <v>44048.333333333336</v>
       </c>
       <c r="B193">
-        <v>0.121950868597286</v>
+        <v>4.5007737277619701E-3</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>44048.840277777781</v>
+        <v>44048.340277777781</v>
       </c>
       <c r="B194">
-        <v>0.13421149831364201</v>
+        <v>1.1644236062743099E-2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>44048.847222222219</v>
+        <v>44048.347222222219</v>
       </c>
       <c r="B195">
-        <v>0.14977264148032399</v>
+        <v>1.5772217261743299E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>44048.854166666664</v>
+        <v>44048.354166666664</v>
       </c>
       <c r="B196">
-        <v>0.165046615256222</v>
+        <v>1.9534412529761298E-2</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>44048.861111111109</v>
+        <v>44048.361111111109</v>
       </c>
       <c r="B197">
-        <v>8.9697581843611304E-2</v>
+        <v>1.9641028824726299E-2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>44048.868055555555</v>
+        <v>44048.368055555555</v>
       </c>
       <c r="B198">
-        <v>8.5916941369345204E-2</v>
+        <v>2.4532994442107901E-2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>44048.875</v>
+        <v>44048.375</v>
       </c>
       <c r="B199">
-        <v>0.102297088734859</v>
+        <v>1.7932285363827401E-2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>44048.881944444445</v>
+        <v>44048.381944444445</v>
       </c>
       <c r="B200">
-        <v>9.8767498824203798E-2</v>
+        <v>3.6482881032139799E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>44048.888888888891</v>
+        <v>44048.388888888891</v>
       </c>
       <c r="B201">
-        <v>9.95993270105269E-2</v>
+        <v>9.8149036741195309E-3</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>44048.895833333336</v>
+        <v>44048.395833333336</v>
       </c>
       <c r="B202">
-        <v>0.10052494339738099</v>
+        <v>-7.5413348113700903E-3</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>44048.902777777781</v>
+        <v>44048.402777777781</v>
       </c>
       <c r="B203">
-        <v>0.10206458967448399</v>
+        <v>-5.5107139389415898E-3</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>44048.909722222219</v>
+        <v>44048.409722222219</v>
       </c>
       <c r="B204">
-        <v>0.105999091697716</v>
+        <v>3.8800928710186299E-4</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>44048.916666666664</v>
+        <v>44048.416666666664</v>
       </c>
       <c r="B205">
-        <v>0.107539007757272</v>
+        <v>-3.9158234110746201E-4</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>44048.923611111109</v>
+        <v>44048.423611111109</v>
       </c>
       <c r="B206">
-        <v>0.11064904731625</v>
+        <v>3.1531325424595498E-3</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>44048.930555555555</v>
+        <v>44048.430555555555</v>
       </c>
       <c r="B207">
-        <v>0.113100748044469</v>
+        <v>2.6127140544126699E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>44048.9375</v>
+        <v>44048.4375</v>
       </c>
       <c r="B208">
-        <v>0.117298597926469</v>
+        <v>3.01709500415831E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>44048.944444444445</v>
+        <v>44048.444444444445</v>
       </c>
       <c r="B209">
-        <v>0.139781813676494</v>
+        <v>1.10203270593418E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>44048.951388888891</v>
+        <v>44048.451388888891</v>
       </c>
       <c r="B210">
-        <v>0.20239477071936399</v>
+        <v>1.1616273900863E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>44048.958333333336</v>
+        <v>44048.458333333336</v>
       </c>
       <c r="B211">
-        <v>0.25587837510862799</v>
+        <v>5.3034366150547303E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>44048.965277777781</v>
+        <v>44048.465277777781</v>
       </c>
       <c r="B212">
-        <v>0.25434813319349597</v>
+        <v>6.3499198477796101E-2</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>44048.972222222219</v>
+        <v>44048.472222222219</v>
       </c>
       <c r="B213">
-        <v>0.26165382349899202</v>
+        <v>1.27486423413868E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>44048.979166666664</v>
+        <v>44048.479166666664</v>
       </c>
       <c r="B214">
-        <v>0.27882016299893803</v>
+        <v>6.8190951978641695E-2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>44048.986111111109</v>
+        <v>44048.486111111109</v>
       </c>
       <c r="B215">
-        <v>0.28672737014854999</v>
+        <v>6.0568016198866301E-2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>44048.993055555555</v>
+        <v>44048.493055555555</v>
       </c>
       <c r="B216">
-        <v>0.289148370471703</v>
+        <v>-4.2188197086593E-3</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>44049</v>
+        <v>44048.5</v>
       </c>
       <c r="B217">
-        <v>0.288376337600879</v>
+        <v>2.9478355872331601E-2</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>44049.006944444445</v>
+        <v>44048.506944444445</v>
       </c>
       <c r="B218">
-        <v>0.26911603827502101</v>
+        <v>-6.65701465326739E-3</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>44049.013888888891</v>
+        <v>44048.513888888891</v>
       </c>
       <c r="B219">
-        <v>0.28994391248868301</v>
+        <v>0.18698885150139199</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>44049.020833333336</v>
+        <v>44048.520833333336</v>
       </c>
       <c r="B220">
-        <v>0.31229130426989199</v>
+        <v>0.101801184374295</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>44049.027777777781</v>
+        <v>44048.527777777781</v>
       </c>
       <c r="B221">
-        <v>0.29272051669377602</v>
+        <v>0.14619411188638101</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>44049.034722222219</v>
+        <v>44048.534722222219</v>
       </c>
       <c r="B222">
-        <v>0.187341526978894</v>
+        <v>0.19174544140807701</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>44049.041666666664</v>
+        <v>44048.541666666664</v>
       </c>
       <c r="B223">
-        <v>4.1297310449016203E-2</v>
+        <v>0.14893209131329599</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>44049.048611111109</v>
+        <v>44048.548611111109</v>
       </c>
       <c r="B224">
-        <v>4.8260949352229E-2</v>
+        <v>6.4565005923801697E-2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>44049.055555555555</v>
+        <v>44048.555555555555</v>
       </c>
       <c r="B225">
-        <v>5.5156138284585203E-2</v>
+        <v>0.239416305962356</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>44049.0625</v>
+        <v>44048.5625</v>
       </c>
       <c r="B226">
-        <v>0.197389539867802</v>
+        <v>3.99796031537294E-2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>44049.069444444445</v>
+        <v>44048.569444444445</v>
       </c>
       <c r="B227">
-        <v>0.29727639570722397</v>
+        <v>3.5636507159338499E-2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>44049.076388888891</v>
+        <v>44048.576388888891</v>
       </c>
       <c r="B228">
-        <v>0.28543258607424199</v>
+        <v>5.8065547443610498E-2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>44049.083333333336</v>
+        <v>44048.583333333336</v>
       </c>
       <c r="B229">
-        <v>0.32614709349343302</v>
+        <v>9.5569917613820304E-2</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>44049.090277777781</v>
+        <v>44048.590277777781</v>
       </c>
       <c r="B230">
-        <v>0.32600096954505098</v>
+        <v>4.6550856782609902E-2</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>44049.097222222219</v>
+        <v>44048.597222222219</v>
       </c>
       <c r="B231">
-        <v>0.32993653087153002</v>
+        <v>2.0298788405111502E-2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>44049.104166666664</v>
+        <v>44048.604166666664</v>
       </c>
       <c r="B232">
-        <v>0.33491752812648101</v>
+        <v>4.62831487678938E-2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>44049.111111111109</v>
+        <v>44048.611111111109</v>
       </c>
       <c r="B233">
-        <v>0.332678742284582</v>
+        <v>7.8489282238334498E-2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>44049.118055555555</v>
+        <v>44048.618055555555</v>
       </c>
       <c r="B234">
-        <v>0.33762029841341601</v>
+        <v>2.9726558232073801E-2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>44049.125</v>
+        <v>44048.625</v>
       </c>
       <c r="B235">
-        <v>0.33131940931141302</v>
+        <v>2.05126541978751E-2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>44049.131944444445</v>
+        <v>44048.631944444445</v>
       </c>
       <c r="B236">
-        <v>0.32740093833462702</v>
+        <v>4.9628518421886897E-2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>44049.138888888891</v>
+        <v>44048.638888888891</v>
       </c>
       <c r="B237">
-        <v>0.31738629455551098</v>
+        <v>1.9864970158755799E-2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>44049.145833333336</v>
+        <v>44048.645833333336</v>
       </c>
       <c r="B238">
-        <v>0.310884914266362</v>
+        <v>3.4552711698461698E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>44049.152777777781</v>
+        <v>44048.652777777781</v>
       </c>
       <c r="B239">
-        <v>0.315507416973346</v>
+        <v>-2.6746189301704099E-2</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>44049.159722222219</v>
+        <v>44048.659722222219</v>
       </c>
       <c r="B240">
-        <v>0.31971733345511499</v>
+        <v>2.1612613512160098E-2</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>44049.166666666664</v>
+        <v>44048.666666666664</v>
       </c>
       <c r="B241">
-        <v>0.319934031906764</v>
+        <v>2.8288400558078599E-2</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>44049.173611111109</v>
+        <v>44048.673611111109</v>
       </c>
       <c r="B242">
-        <v>0.30198017765764401</v>
+        <v>7.3717742566564604E-2</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>44049.180555555555</v>
+        <v>44048.680555555555</v>
       </c>
       <c r="B243">
-        <v>0.30412920780841701</v>
+        <v>-0.111381224048057</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>44049.1875</v>
+        <v>44048.6875</v>
       </c>
       <c r="B244">
-        <v>0.29988985729152301</v>
+        <v>-0.24711944713909401</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>44049.194444444445</v>
+        <v>44048.694444444445</v>
       </c>
       <c r="B245">
-        <v>0.30876505373799701</v>
+        <v>2.3333283482749299E-2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>44049.201388888891</v>
+        <v>44048.701388888891</v>
       </c>
       <c r="B246">
-        <v>0.30191707410478102</v>
+        <v>-5.2765994893589602E-2</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>44049.208333333336</v>
+        <v>44048.708333333336</v>
       </c>
       <c r="B247">
-        <v>0.30976731826925302</v>
+        <v>8.7707181567586001E-2</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>44049.215277777781</v>
+        <v>44048.715277777781</v>
       </c>
       <c r="B248">
-        <v>0.32231624464815201</v>
+        <v>0.13639842656576101</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>44049.222222222219</v>
+        <v>44048.722222222219</v>
       </c>
       <c r="B249">
-        <v>0.32315643118672499</v>
+        <v>0.17448904205096399</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>44049.229166666664</v>
+        <v>44048.729166666664</v>
       </c>
       <c r="B250">
-        <v>0.31873173907464802</v>
+        <v>0.15601784393063001</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>44049.236111111109</v>
+        <v>44048.736111111109</v>
       </c>
       <c r="B251">
-        <v>0.30484152472477599</v>
+        <v>0.14245094834394401</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>44049.243055555555</v>
+        <v>44048.743055555555</v>
       </c>
       <c r="B252">
-        <v>0.29198870166678698</v>
+        <v>0.16834637052106299</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>44049.25</v>
+        <v>44048.75</v>
       </c>
       <c r="B253">
-        <v>9.9112050271444194E-2</v>
+        <v>0.24093757889068501</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>44049.256944444445</v>
+        <v>44048.756944444445</v>
       </c>
       <c r="B254">
-        <v>0.27137292435814703</v>
+        <v>0.26121924611786501</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>44049.263888888891</v>
+        <v>44048.763888888891</v>
       </c>
       <c r="B255">
-        <v>0.16876194375430101</v>
+        <v>0.211271501869324</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>44049.270833333336</v>
+        <v>44048.770833333336</v>
       </c>
       <c r="B256">
-        <v>0.19206080271687301</v>
+        <v>0.34500049895789803</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>44049.277777777781</v>
+        <v>44048.777777777781</v>
       </c>
       <c r="B257">
-        <v>0.173753173087112</v>
+        <v>0.41923784632952399</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>44049.284722222219</v>
+        <v>44048.784722222219</v>
       </c>
       <c r="B258">
-        <v>7.8185332790791096E-2</v>
+        <v>0.27759238636335698</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>44049.291666666664</v>
+        <v>44048.791666666664</v>
       </c>
       <c r="B259">
-        <v>8.5333492022255306E-2</v>
+        <v>0.18930106063331401</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>44049.298611111109</v>
+        <v>44048.798611111109</v>
       </c>
       <c r="B260">
-        <v>9.7716286452276105E-2</v>
+        <v>0.192791749429468</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>44049.305555555555</v>
+        <v>44048.805555555555</v>
       </c>
       <c r="B261">
-        <v>2.1528048862126E-2</v>
+        <v>0.19496569590322099</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>44049.3125</v>
+        <v>44048.8125</v>
       </c>
       <c r="B262">
-        <v>1.4254727795103599E-2</v>
+        <v>0.158658448255481</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>44049.319444444445</v>
+        <v>44048.819444444445</v>
       </c>
       <c r="B263">
-        <v>1.0670268074755801E-2</v>
+        <v>0.16284345739815001</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>44049.326388888891</v>
+        <v>44048.826388888891</v>
       </c>
       <c r="B264">
-        <v>8.2581313095492995E-3</v>
+        <v>0.129094396388409</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>44049.333333333336</v>
+        <v>44048.833333333336</v>
       </c>
       <c r="B265">
-        <v>1.9064123573414402E-2</v>
+        <v>0.121950868597286</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>44049.340277777781</v>
+        <v>44048.840277777781</v>
       </c>
       <c r="B266">
-        <v>2.1522610097226901E-2</v>
+        <v>0.13421149831364201</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>44049.347222222219</v>
+        <v>44048.847222222219</v>
       </c>
       <c r="B267">
-        <v>1.6101222523872801E-2</v>
+        <v>0.14977264148032399</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>44049.354166666664</v>
+        <v>44048.854166666664</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>0.165046615256222</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>44049.361111111109</v>
+        <v>44048.861111111109</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>8.9697581843611304E-2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>44049.368055555555</v>
+        <v>44048.868055555555</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>8.5916941369345204E-2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>44049.375</v>
+        <v>44048.875</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>0.102297088734859</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>44049.381944444445</v>
+        <v>44048.881944444445</v>
       </c>
       <c r="B272">
-        <v>9.49573754859738E-3</v>
+        <v>9.8767498824203798E-2</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>44049.388888888891</v>
+        <v>44048.888888888891</v>
       </c>
       <c r="B273">
-        <v>1.6061191930338E-2</v>
+        <v>9.95993270105269E-2</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>44049.395833333336</v>
+        <v>44048.895833333336</v>
       </c>
       <c r="B274">
-        <v>1.54568886304291E-2</v>
+        <v>0.10052494339738099</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>44049.402777777781</v>
+        <v>44048.902777777781</v>
       </c>
       <c r="B275">
-        <v>1.44821999979337E-2</v>
+        <v>0.10206458967448399</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>44049.409722222219</v>
+        <v>44048.909722222219</v>
       </c>
       <c r="B276">
-        <v>1.3769795063384599E-2</v>
+        <v>0.105999091697716</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>44049.416666666664</v>
+        <v>44048.916666666664</v>
       </c>
       <c r="B277">
-        <v>1.4752810982684999E-2</v>
+        <v>0.107539007757272</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>44049.423611111109</v>
+        <v>44048.923611111109</v>
       </c>
       <c r="B278">
-        <v>3.0460301089649599E-2</v>
+        <v>0.11064904731625</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>44049.430555555555</v>
+        <v>44048.930555555555</v>
       </c>
       <c r="B279">
-        <v>2.7694249998735501E-2</v>
+        <v>0.113100748044469</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>44049.4375</v>
+        <v>44048.9375</v>
       </c>
       <c r="B280">
-        <v>3.5368143536666799E-2</v>
+        <v>0.117298597926469</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>44049.444444444445</v>
+        <v>44048.944444444445</v>
       </c>
       <c r="B281">
-        <v>2.6562201592909101E-2</v>
+        <v>0.139781813676494</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>44049.451388888891</v>
+        <v>44048.951388888891</v>
       </c>
       <c r="B282">
-        <v>1.41006224542708E-2</v>
+        <v>0.20239477071936399</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>44049.458333333336</v>
+        <v>44048.958333333336</v>
       </c>
       <c r="B283">
-        <v>4.0196403984376003E-2</v>
+        <v>0.25587837510862799</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>44049.465277777781</v>
+        <v>44048.965277777781</v>
       </c>
       <c r="B284">
-        <v>2.8834187737764201E-2</v>
+        <v>0.25434813319349597</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>44049.472222222219</v>
+        <v>44048.972222222219</v>
       </c>
       <c r="B285">
-        <v>4.8175661835448198E-2</v>
+        <v>0.26165382349899202</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>44049.479166666664</v>
+        <v>44048.979166666664</v>
       </c>
       <c r="B286">
-        <v>4.0182708020709897E-2</v>
+        <v>0.27882016299893803</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>44049.486111111109</v>
+        <v>44048.986111111109</v>
       </c>
       <c r="B287">
-        <v>1.0461723277225599E-2</v>
+        <v>0.28672737014854999</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>44049.493055555555</v>
+        <v>44048.993055555555</v>
       </c>
       <c r="B288">
-        <v>1.43223371241797E-2</v>
+        <v>0.289148370471703</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>44049.5</v>
+        <v>44049</v>
       </c>
       <c r="B289">
-        <v>7.6372930153205103E-3</v>
+        <v>0.288376337600879</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>44049.506944444445</v>
+        <v>44049.006944444445</v>
       </c>
       <c r="B290">
-        <v>1.0393724831353901E-2</v>
+        <v>0.26911603827502101</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>44049.513888888891</v>
+        <v>44049.013888888891</v>
       </c>
       <c r="B291">
-        <v>1.6007065223286699E-2</v>
+        <v>0.28994391248868301</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>44049.520833333336</v>
+        <v>44049.020833333336</v>
       </c>
       <c r="B292">
-        <v>2.5201921369986301E-2</v>
+        <v>0.31229130426989199</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>44049.527777777781</v>
+        <v>44049.027777777781</v>
       </c>
       <c r="B293">
-        <v>3.2656810670031497E-2</v>
+        <v>0.29272051669377602</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>44049.534722222219</v>
+        <v>44049.034722222219</v>
       </c>
       <c r="B294">
-        <v>3.7055240809608501E-2</v>
+        <v>0.187341526978894</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>44049.541666666664</v>
+        <v>44049.041666666664</v>
       </c>
       <c r="B295">
-        <v>1.9962710079885902E-2</v>
+        <v>4.1297310449016203E-2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>44049.548611111109</v>
+        <v>44049.048611111109</v>
       </c>
       <c r="B296">
-        <v>7.9211611231157497E-3</v>
+        <v>4.8260949352229E-2</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>44049.555555555555</v>
+        <v>44049.055555555555</v>
       </c>
       <c r="B297">
-        <v>9.65630362398915E-3</v>
+        <v>5.5156138284585203E-2</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>44049.5625</v>
+        <v>44049.0625</v>
       </c>
       <c r="B298">
-        <v>5.8844323573966802E-3</v>
+        <v>0.197389539867802</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>44049.569444444445</v>
+        <v>44049.069444444445</v>
       </c>
       <c r="B299">
-        <v>1.25416004118845E-2</v>
+        <v>0.29727639570722397</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>44049.576388888891</v>
+        <v>44049.076388888891</v>
       </c>
       <c r="B300">
-        <v>4.9498386730765197E-3</v>
+        <v>0.28543258607424199</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>44049.583333333336</v>
+        <v>44049.083333333336</v>
       </c>
       <c r="B301">
-        <v>3.2131269050273303E-2</v>
+        <v>0.32614709349343302</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>44049.590277777781</v>
+        <v>44049.090277777781</v>
       </c>
       <c r="B302">
-        <v>3.0167883492208999E-2</v>
+        <v>0.32600096954505098</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>44049.597222222219</v>
+        <v>44049.097222222219</v>
       </c>
       <c r="B303">
-        <v>9.2801984792382098E-3</v>
+        <v>0.32993653087153002</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>44049.604166666664</v>
+        <v>44049.104166666664</v>
       </c>
       <c r="B304">
-        <v>2.8955879620229498E-3</v>
+        <v>0.33491752812648101</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>44049.611111111109</v>
+        <v>44049.111111111109</v>
       </c>
       <c r="B305">
-        <v>-2.6460660065326901E-3</v>
+        <v>0.332678742284582</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>44049.618055555555</v>
+        <v>44049.118055555555</v>
       </c>
       <c r="B306">
-        <v>1.7871061557720301E-2</v>
+        <v>0.33762029841341601</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>44049.625</v>
+        <v>44049.125</v>
       </c>
       <c r="B307">
-        <v>1.6164348646726799E-2</v>
+        <v>0.33131940931141302</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>44049.631944444445</v>
+        <v>44049.131944444445</v>
       </c>
       <c r="B308">
-        <v>3.0167883492208999E-2</v>
+        <v>0.32740093833462702</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>44049.638888888891</v>
+        <v>44049.138888888891</v>
       </c>
       <c r="B309">
-        <v>9.2801984792382098E-3</v>
+        <v>0.31738629455551098</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>44049.645833333336</v>
+        <v>44049.145833333336</v>
       </c>
       <c r="B310">
-        <v>2.8955879620229498E-3</v>
+        <v>0.310884914266362</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>44049.652777777781</v>
+        <v>44049.152777777781</v>
       </c>
       <c r="B311">
-        <v>-2.6460660065326901E-3</v>
+        <v>0.315507416973346</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>44049.659722222219</v>
+        <v>44049.159722222219</v>
       </c>
       <c r="B312">
-        <v>1.7871061557720301E-2</v>
+        <v>0.31971733345511499</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>44049.666666666664</v>
+        <v>44049.166666666664</v>
       </c>
       <c r="B313">
-        <v>1.6164348646726799E-2</v>
+        <v>0.319934031906764</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>44049.673611111109</v>
+        <v>44049.173611111109</v>
       </c>
       <c r="B314">
-        <v>-1.4091140215044299E-3</v>
+        <v>0.30198017765764401</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>44049.680555555555</v>
+        <v>44049.180555555555</v>
       </c>
       <c r="B315">
-        <v>-1.8877637157430099E-2</v>
+        <v>0.30412920780841701</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>44049.6875</v>
+        <v>44049.1875</v>
       </c>
       <c r="B316">
-        <v>-3.4305974408122303E-2</v>
+        <v>0.29988985729152301</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>44049.694444444445</v>
+        <v>44049.194444444445</v>
       </c>
       <c r="B317">
-        <v>-3.0595403325003101E-2</v>
+        <v>0.30876505373799701</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>44049.701388888891</v>
+        <v>44049.201388888891</v>
       </c>
       <c r="B318">
-        <v>-4.4784692465344597E-2</v>
+        <v>0.30191707410478102</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>44049.708333333336</v>
+        <v>44049.208333333336</v>
       </c>
       <c r="B319">
-        <v>-4.3348138623028699E-2</v>
+        <v>0.30976731826925302</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>44049.715277777781</v>
+        <v>44049.215277777781</v>
       </c>
       <c r="B320">
-        <v>-4.5372189133503701E-2</v>
+        <v>0.32231624464815201</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>44049.722222222219</v>
+        <v>44049.222222222219</v>
       </c>
       <c r="B321">
-        <v>-6.7057586460136098E-2</v>
+        <v>0.32315643118672499</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>44049.729166666664</v>
+        <v>44049.229166666664</v>
       </c>
       <c r="B322">
-        <v>-5.1249983622500703E-2</v>
+        <v>0.31873173907464802</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>44049.736111111109</v>
+        <v>44049.236111111109</v>
       </c>
       <c r="B323">
-        <v>-7.1649354042614799E-2</v>
+        <v>0.30484152472477599</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>44049.743055555555</v>
+        <v>44049.243055555555</v>
       </c>
       <c r="B324">
-        <v>-8.1242917278467205E-2</v>
+        <v>0.29198870166678698</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>44049.75</v>
+        <v>44049.25</v>
       </c>
       <c r="B325">
-        <v>-7.3281554025577803E-2</v>
+        <v>9.9112050271444194E-2</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>44049.756944444445</v>
+        <v>44049.256944444445</v>
       </c>
       <c r="B326">
-        <v>-4.3703890767353502E-2</v>
+        <v>0.27137292435814703</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>44049.763888888891</v>
+        <v>44049.263888888891</v>
       </c>
       <c r="B327">
-        <v>-2.4205267673109501E-2</v>
+        <v>0.16876194375430101</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>44049.770833333336</v>
+        <v>44049.270833333336</v>
       </c>
       <c r="B328">
-        <v>-2.56202085129257E-2</v>
+        <v>0.19206080271687301</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>44049.777777777781</v>
+        <v>44049.277777777781</v>
       </c>
       <c r="B329">
-        <v>-1.4388582776978799E-2</v>
+        <v>0.173753173087112</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>44049.784722222219</v>
+        <v>44049.284722222219</v>
       </c>
       <c r="B330">
-        <v>-4.6326186627475797E-3</v>
+        <v>7.8185332790791096E-2</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>44049.791666666664</v>
+        <v>44049.291666666664</v>
       </c>
       <c r="B331">
-        <v>-1.2468386918778301E-3</v>
+        <v>8.5333492022255306E-2</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>44049.798611111109</v>
+        <v>44049.298611111109</v>
       </c>
       <c r="B332">
-        <v>-9.051640263727E-3</v>
+        <v>9.7716286452276105E-2</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>44049.805555555555</v>
+        <v>44049.305555555555</v>
       </c>
       <c r="B333">
-        <v>-7.9227359438650002E-3</v>
+        <v>2.1528048862126E-2</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>44049.8125</v>
+        <v>44049.3125</v>
       </c>
       <c r="B334">
-        <v>-4.8524245156272398E-3</v>
+        <v>1.4254727795103599E-2</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>44049.819444444445</v>
+        <v>44049.319444444445</v>
       </c>
       <c r="B335">
-        <v>-1.0972069929308099E-3</v>
+        <v>1.0670268074755801E-2</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>44049.826388888891</v>
+        <v>44049.326388888891</v>
       </c>
       <c r="B336">
-        <v>1.3010205932592301E-3</v>
+        <v>8.2581313095492995E-3</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>44049.833333333336</v>
+        <v>44049.333333333336</v>
       </c>
       <c r="B337">
-        <v>1.49293390831302E-3</v>
+        <v>1.9064123573414402E-2</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>44049.840277777781</v>
+        <v>44049.340277777781</v>
       </c>
       <c r="B338">
-        <v>1.3275204209993001E-3</v>
+        <v>2.1522610097226901E-2</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>44049.847222222219</v>
+        <v>44049.347222222219</v>
       </c>
       <c r="B339">
-        <v>-2.8133771839636301E-3</v>
+        <v>1.6101222523872801E-2</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>44049.854166666664</v>
+        <v>44049.354166666664</v>
       </c>
       <c r="B340">
-        <v>-4.2515367505887398E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>44049.861111111109</v>
+        <v>44049.361111111109</v>
       </c>
       <c r="B341">
-        <v>6.3315520872191999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>44049.868055555555</v>
+        <v>44049.368055555555</v>
       </c>
       <c r="B342">
-        <v>0.10469811335250701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>44049.875</v>
+        <v>44049.375</v>
       </c>
       <c r="B343">
-        <v>-7.3231610807614504E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>44049.881944444445</v>
+        <v>44049.381944444445</v>
       </c>
       <c r="B344">
-        <v>-6.8347870358489203E-3</v>
+        <v>9.49573754859738E-3</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>44049.888888888891</v>
+        <v>44049.388888888891</v>
       </c>
       <c r="B345">
-        <v>-9.7837749811561896E-3</v>
+        <v>1.6061191930338E-2</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>44049.895833333336</v>
+        <v>44049.395833333336</v>
       </c>
       <c r="B346">
-        <v>-3.9700047256607798E-3</v>
+        <v>1.54568886304291E-2</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>44049.902777777781</v>
+        <v>44049.402777777781</v>
       </c>
       <c r="B347">
-        <v>-3.6027303616279201E-3</v>
+        <v>1.44821999979337E-2</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>44049.909722222219</v>
+        <v>44049.409722222219</v>
       </c>
       <c r="B348">
-        <v>-2.0113894284117498E-3</v>
+        <v>1.3769795063384599E-2</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>44049.916666666664</v>
+        <v>44049.416666666664</v>
       </c>
       <c r="B349">
-        <v>1.9315907404696101E-3</v>
+        <v>1.4752810982684999E-2</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>44049.923611111109</v>
+        <v>44049.423611111109</v>
       </c>
       <c r="B350">
-        <v>3.5312333842068499E-3</v>
+        <v>3.0460301089649599E-2</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>44049.930555555555</v>
+        <v>44049.430555555555</v>
       </c>
       <c r="B351">
-        <v>4.3670909071239997E-3</v>
+        <v>2.7694249998735501E-2</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>44049.9375</v>
+        <v>44049.4375</v>
       </c>
       <c r="B352">
-        <v>6.6058750496215601E-3</v>
+        <v>3.5368143536666799E-2</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>44049.944444444445</v>
+        <v>44049.444444444445</v>
       </c>
       <c r="B353">
-        <v>0.11109171978192101</v>
+        <v>2.6562201592909101E-2</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>44049.951388888891</v>
+        <v>44049.451388888891</v>
       </c>
       <c r="B354">
-        <v>0.21285254382289301</v>
+        <v>1.41006224542708E-2</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>44049.958333333336</v>
+        <v>44049.458333333336</v>
       </c>
       <c r="B355">
-        <v>0.181937829170711</v>
+        <v>4.0196403984376003E-2</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>44049.965277777781</v>
+        <v>44049.465277777781</v>
       </c>
       <c r="B356">
-        <v>0.17715278892817601</v>
+        <v>2.8834187737764201E-2</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>44049.972222222219</v>
+        <v>44049.472222222219</v>
       </c>
       <c r="B357">
-        <v>0.21954577585340401</v>
+        <v>4.8175661835448198E-2</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>44049.979166666664</v>
+        <v>44049.479166666664</v>
       </c>
       <c r="B358">
-        <v>0.21847499715342</v>
+        <v>4.0182708020709897E-2</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>44049.986111111109</v>
+        <v>44049.486111111109</v>
       </c>
       <c r="B359">
-        <v>0.214830236297199</v>
+        <v>1.0461723277225599E-2</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>44049.993055555555</v>
+        <v>44049.493055555555</v>
       </c>
       <c r="B360">
-        <v>0.21861586531126501</v>
+        <v>1.43223371241797E-2</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
+        <v>44049.5</v>
+      </c>
+      <c r="B361">
+        <v>7.6372930153205103E-3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>44049.506944444445</v>
+      </c>
+      <c r="B362">
+        <v>1.0393724831353901E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>44049.513888888891</v>
+      </c>
+      <c r="B363">
+        <v>1.6007065223286699E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>44049.520833333336</v>
+      </c>
+      <c r="B364">
+        <v>2.5201921369986301E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>44049.527777777781</v>
+      </c>
+      <c r="B365">
+        <v>3.2656810670031497E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>44049.534722222219</v>
+      </c>
+      <c r="B366">
+        <v>3.7055240809608501E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>44049.541666666664</v>
+      </c>
+      <c r="B367">
+        <v>1.9962710079885902E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>44049.548611111109</v>
+      </c>
+      <c r="B368">
+        <v>7.9211611231157497E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>44049.555555555555</v>
+      </c>
+      <c r="B369">
+        <v>9.65630362398915E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>44049.5625</v>
+      </c>
+      <c r="B370">
+        <v>5.8844323573966802E-3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>44049.569444444445</v>
+      </c>
+      <c r="B371">
+        <v>1.25416004118845E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="2">
+        <v>44049.576388888891</v>
+      </c>
+      <c r="B372">
+        <v>4.9498386730765197E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="2">
+        <v>44049.583333333336</v>
+      </c>
+      <c r="B373">
+        <v>3.2131269050273303E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="2">
+        <v>44049.590277777781</v>
+      </c>
+      <c r="B374">
+        <v>3.0167883492208999E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="2">
+        <v>44049.597222222219</v>
+      </c>
+      <c r="B375">
+        <v>9.2801984792382098E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="2">
+        <v>44049.604166666664</v>
+      </c>
+      <c r="B376">
+        <v>2.8955879620229498E-3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="2">
+        <v>44049.611111111109</v>
+      </c>
+      <c r="B377">
+        <v>-2.6460660065326901E-3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="2">
+        <v>44049.618055555555</v>
+      </c>
+      <c r="B378">
+        <v>1.7871061557720301E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="2">
+        <v>44049.625</v>
+      </c>
+      <c r="B379">
+        <v>1.6164348646726799E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="2">
+        <v>44049.631944444445</v>
+      </c>
+      <c r="B380">
+        <v>3.0167883492208999E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="2">
+        <v>44049.638888888891</v>
+      </c>
+      <c r="B381">
+        <v>9.2801984792382098E-3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="2">
+        <v>44049.645833333336</v>
+      </c>
+      <c r="B382">
+        <v>2.8955879620229498E-3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="2">
+        <v>44049.652777777781</v>
+      </c>
+      <c r="B383">
+        <v>-2.6460660065326901E-3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="2">
+        <v>44049.659722222219</v>
+      </c>
+      <c r="B384">
+        <v>1.7871061557720301E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="2">
+        <v>44049.666666666664</v>
+      </c>
+      <c r="B385">
+        <v>1.6164348646726799E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="2">
+        <v>44049.673611111109</v>
+      </c>
+      <c r="B386">
+        <v>-1.4091140215044299E-3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="2">
+        <v>44049.680555555555</v>
+      </c>
+      <c r="B387">
+        <v>-1.8877637157430099E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="2">
+        <v>44049.6875</v>
+      </c>
+      <c r="B388">
+        <v>-3.4305974408122303E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="2">
+        <v>44049.694444444445</v>
+      </c>
+      <c r="B389">
+        <v>-3.0595403325003101E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="2">
+        <v>44049.701388888891</v>
+      </c>
+      <c r="B390">
+        <v>-4.4784692465344597E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="2">
+        <v>44049.708333333336</v>
+      </c>
+      <c r="B391">
+        <v>-4.3348138623028699E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="2">
+        <v>44049.715277777781</v>
+      </c>
+      <c r="B392">
+        <v>-4.5372189133503701E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="2">
+        <v>44049.722222222219</v>
+      </c>
+      <c r="B393">
+        <v>-6.7057586460136098E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="2">
+        <v>44049.729166666664</v>
+      </c>
+      <c r="B394">
+        <v>-5.1249983622500703E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="2">
+        <v>44049.736111111109</v>
+      </c>
+      <c r="B395">
+        <v>-7.1649354042614799E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="2">
+        <v>44049.743055555555</v>
+      </c>
+      <c r="B396">
+        <v>-8.1242917278467205E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="2">
+        <v>44049.75</v>
+      </c>
+      <c r="B397">
+        <v>-7.3281554025577803E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="2">
+        <v>44049.756944444445</v>
+      </c>
+      <c r="B398">
+        <v>-4.3703890767353502E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="2">
+        <v>44049.763888888891</v>
+      </c>
+      <c r="B399">
+        <v>-2.4205267673109501E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="2">
+        <v>44049.770833333336</v>
+      </c>
+      <c r="B400">
+        <v>-2.56202085129257E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="2">
+        <v>44049.777777777781</v>
+      </c>
+      <c r="B401">
+        <v>-1.4388582776978799E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="2">
+        <v>44049.784722222219</v>
+      </c>
+      <c r="B402">
+        <v>-4.6326186627475797E-3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="2">
+        <v>44049.791666666664</v>
+      </c>
+      <c r="B403">
+        <v>-1.2468386918778301E-3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="2">
+        <v>44049.798611111109</v>
+      </c>
+      <c r="B404">
+        <v>-9.051640263727E-3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="2">
+        <v>44049.805555555555</v>
+      </c>
+      <c r="B405">
+        <v>-7.9227359438650002E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>44049.8125</v>
+      </c>
+      <c r="B406">
+        <v>-4.8524245156272398E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="2">
+        <v>44049.819444444445</v>
+      </c>
+      <c r="B407">
+        <v>-1.0972069929308099E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="2">
+        <v>44049.826388888891</v>
+      </c>
+      <c r="B408">
+        <v>1.3010205932592301E-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="2">
+        <v>44049.833333333336</v>
+      </c>
+      <c r="B409">
+        <v>1.49293390831302E-3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="2">
+        <v>44049.840277777781</v>
+      </c>
+      <c r="B410">
+        <v>1.3275204209993001E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="2">
+        <v>44049.847222222219</v>
+      </c>
+      <c r="B411">
+        <v>-2.8133771839636301E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="2">
+        <v>44049.854166666664</v>
+      </c>
+      <c r="B412">
+        <v>-4.2515367505887398E-4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="2">
+        <v>44049.861111111109</v>
+      </c>
+      <c r="B413">
+        <v>6.3315520872191999E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="2">
+        <v>44049.868055555555</v>
+      </c>
+      <c r="B414">
+        <v>0.10469811335250701</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="2">
+        <v>44049.875</v>
+      </c>
+      <c r="B415">
+        <v>-7.3231610807614504E-3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="2">
+        <v>44049.881944444445</v>
+      </c>
+      <c r="B416">
+        <v>-6.8347870358489203E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="2">
+        <v>44049.888888888891</v>
+      </c>
+      <c r="B417">
+        <v>-9.7837749811561896E-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="2">
+        <v>44049.895833333336</v>
+      </c>
+      <c r="B418">
+        <v>-3.9700047256607798E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="2">
+        <v>44049.902777777781</v>
+      </c>
+      <c r="B419">
+        <v>-3.6027303616279201E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="2">
+        <v>44049.909722222219</v>
+      </c>
+      <c r="B420">
+        <v>-2.0113894284117498E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="2">
+        <v>44049.916666666664</v>
+      </c>
+      <c r="B421">
+        <v>1.9315907404696101E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="2">
+        <v>44049.923611111109</v>
+      </c>
+      <c r="B422">
+        <v>3.5312333842068499E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>44049.930555555555</v>
+      </c>
+      <c r="B423">
+        <v>4.3670909071239997E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="2">
+        <v>44049.9375</v>
+      </c>
+      <c r="B424">
+        <v>6.6058750496215601E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="2">
+        <v>44049.944444444445</v>
+      </c>
+      <c r="B425">
+        <v>0.11109171978192101</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="2">
+        <v>44049.951388888891</v>
+      </c>
+      <c r="B426">
+        <v>0.21285254382289301</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="2">
+        <v>44049.958333333336</v>
+      </c>
+      <c r="B427">
+        <v>0.181937829170711</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="2">
+        <v>44049.965277777781</v>
+      </c>
+      <c r="B428">
+        <v>0.17715278892817601</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="2">
+        <v>44049.972222222219</v>
+      </c>
+      <c r="B429">
+        <v>0.21954577585340401</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="2">
+        <v>44049.979166666664</v>
+      </c>
+      <c r="B430">
+        <v>0.21847499715342</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
+        <v>44049.986111111109</v>
+      </c>
+      <c r="B431">
+        <v>0.214830236297199</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="2">
+        <v>44049.993055555555</v>
+      </c>
+      <c r="B432">
+        <v>0.21861586531126501</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="2">
         <v>44050</v>
       </c>
-      <c r="B361">
+      <c r="B433">
         <v>0.20699449197125799</v>
       </c>
     </row>
